--- a/va_facility_data_2025-02-20/Jewell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jewell%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jewell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jewell%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rcb169b82e3654cb59691c5e7c0437d73"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R3ad06fb0ddd24d59bd6bc887242ab771"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4a80a2eda9c34e3e9131caaab87b8785"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Re080439cbe524312a36585aa458761d6"/>
   </x:sheets>
 </x:workbook>
 </file>
